--- a/20141228-mfcu/builds/development/data/maindata.xlsx
+++ b/20141228-mfcu/builds/development/data/maindata.xlsx
@@ -11,9 +11,9 @@
     <sheet name="data2011" sheetId="2" r:id="rId2"/>
     <sheet name="data2012" sheetId="3" r:id="rId3"/>
     <sheet name="data2013" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="source" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="140">
   <si>
     <t>MFCU STATISTICAL DATA FOR FISCAL YEAR 2010</t>
   </si>
@@ -407,6 +407,42 @@
   </si>
   <si>
     <t>Source: U.S. Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>souce</t>
+  </si>
+  <si>
+    <t>U.S. Department of Health and Human Services</t>
+  </si>
+  <si>
+    <t>data2010</t>
+  </si>
+  <si>
+    <t>data2011</t>
+  </si>
+  <si>
+    <t>data2012</t>
+  </si>
+  <si>
+    <t>data2013</t>
+  </si>
+  <si>
+    <t>MFCU Statistical Data 2010</t>
+  </si>
+  <si>
+    <t>MFCU Statistical Data 2011</t>
+  </si>
+  <si>
+    <t>MFCU Statistical Data 2012</t>
+  </si>
+  <si>
+    <t>MFCU Statistical Data 2013</t>
   </si>
 </sst>
 </file>
@@ -416,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -446,6 +482,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -495,10 +549,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +622,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -574,8 +633,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,103 +978,103 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="28" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="24"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,7 +1120,7 @@
       <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -3790,103 +3854,103 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="28" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="24"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="25"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3932,7 +3996,7 @@
       <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="26"/>
+      <c r="Q5" s="27"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -6637,7 +6701,7 @@
         <v>1833.5</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" ht="17">
       <c r="A57" s="20"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -6685,75 +6749,75 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="22"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="28" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="28" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6788,7 +6852,7 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6804,7 +6868,7 @@
       <c r="P4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -9538,75 +9602,75 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="26"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="27"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="28"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="22"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="28" t="s">
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="28" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="28" t="s">
+      <c r="P3" s="26"/>
+      <c r="Q3" s="29" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9641,7 +9705,7 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9657,7 +9721,7 @@
       <c r="P4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="26"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -12384,26 +12448,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2014</v>
       </c>
     </row>
+    <row r="6" spans="1:3" s="30" customFormat="1">
+      <c r="A6" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/20141228-mfcu/builds/development/data/maindata.xlsx
+++ b/20141228-mfcu/builds/development/data/maindata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="13020" yWindow="4080" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="data2010" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="data2012" sheetId="3" r:id="rId3"/>
     <sheet name="data2013" sheetId="4" r:id="rId4"/>
     <sheet name="source" sheetId="5" r:id="rId5"/>
+    <sheet name="layout" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="172">
   <si>
     <t>MFCU STATISTICAL DATA FOR FISCAL YEAR 2010</t>
   </si>
@@ -443,6 +444,102 @@
   </si>
   <si>
     <t>MFCU Statistical Data 2013</t>
+  </si>
+  <si>
+    <t>Investigations1: Total</t>
+  </si>
+  <si>
+    <t>Investigations1: Fraud</t>
+  </si>
+  <si>
+    <t>Investigations1: Abuse/Neglect</t>
+  </si>
+  <si>
+    <t>Indicted/Charged: Total</t>
+  </si>
+  <si>
+    <t>Indicted/Charged: Fraud</t>
+  </si>
+  <si>
+    <t>Indicted/Charged: Abuse/Neglect</t>
+  </si>
+  <si>
+    <t>Convictions: Total</t>
+  </si>
+  <si>
+    <t>Convictions: Fraud</t>
+  </si>
+  <si>
+    <t>Convictions: Abuse/Neglect</t>
+  </si>
+  <si>
+    <t>Convictions: Civil Settlements and Judgements</t>
+  </si>
+  <si>
+    <t>Recoveries2: Total</t>
+  </si>
+  <si>
+    <t>Recoveries2: Criminal</t>
+  </si>
+  <si>
+    <t>Recoveries2: Civil</t>
+  </si>
+  <si>
+    <t>Expenditures: MFCU Grant Expenditures</t>
+  </si>
+  <si>
+    <t>Expenditures: Total Medicaid Expenditures</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>Investigations total</t>
+  </si>
+  <si>
+    <t>Fraud investigations total</t>
+  </si>
+  <si>
+    <t>Abuse and neglect investigations total</t>
+  </si>
+  <si>
+    <t>Fraud indicted/charged total</t>
+  </si>
+  <si>
+    <t>Indicted/charged total</t>
+  </si>
+  <si>
+    <t>Abuse and neglect indicted/charged total</t>
+  </si>
+  <si>
+    <t>Convictions total</t>
+  </si>
+  <si>
+    <t>Fraud convictions totals</t>
+  </si>
+  <si>
+    <t>Abuse and neglect convictions total</t>
+  </si>
+  <si>
+    <t>Civil settlements and judgements total</t>
+  </si>
+  <si>
+    <t>Recoveries total</t>
+  </si>
+  <si>
+    <t>Criminal recoveries total</t>
+  </si>
+  <si>
+    <t>Civil recoveries total</t>
+  </si>
+  <si>
+    <t>Grand expenditure total</t>
+  </si>
+  <si>
+    <t>Medicaid expenditure total</t>
+  </si>
+  <si>
+    <t>Number of staff on board</t>
   </si>
 </sst>
 </file>
@@ -549,14 +646,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,6 +742,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,13 +754,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -971,110 +1113,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:Q2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="29" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="25"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1120,7 +1262,7 @@
       <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
@@ -3837,6 +3979,7 @@
     <mergeCell ref="Q3:Q5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3849,108 +3992,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="29" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="25"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="27"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3996,7 +4141,7 @@
       <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="27"/>
+      <c r="Q5" s="29"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1">
       <c r="A6" s="11" t="s">
@@ -6744,80 +6889,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="22"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="29" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6852,7 +6999,7 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
@@ -6868,7 +7015,7 @@
       <c r="P4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -9597,80 +9744,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="30"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1">
       <c r="A3" s="22"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="29" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="29" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="29" t="s">
+      <c r="P3" s="28"/>
+      <c r="Q3" s="31" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9705,7 +9854,7 @@
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
@@ -9721,7 +9870,7 @@
       <c r="P4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Q4" s="27"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -12450,8 +12599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -12469,14 +12618,14 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="30" customFormat="1">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:3" s="24" customFormat="1">
+      <c r="A6" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12522,6 +12671,594 @@
       </c>
       <c r="C10" t="s">
         <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="36.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" s="24" customFormat="1">
+      <c r="A2" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
